--- a/model_metrics.xlsx
+++ b/model_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>699</v>
+        <v>746</v>
       </c>
       <c r="D2" t="n">
-        <v>6725</v>
+        <v>6726</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9654696132596685</v>
+        <v>0.9688311688311688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.9946666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9962962962962963</v>
+        <v>0.9964444444444445</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9924734356552538</v>
+        <v>0.999405646359584</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9898666666666667</v>
+        <v>0.9962666666666666</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9484396200814111</v>
+        <v>0.9815789473684211</v>
       </c>
     </row>
     <row r="3">
@@ -538,37 +538,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>710</v>
+        <v>728</v>
       </c>
       <c r="D3" t="n">
-        <v>6713</v>
+        <v>6748</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9504685408299867</v>
+        <v>0.9972602739726028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.9706666666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9945185185185185</v>
+        <v>0.9997037037037036</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9940767066488968</v>
+        <v>0.9967503692762186</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9897333333333334</v>
+        <v>0.9968</v>
       </c>
       <c r="L3" t="n">
-        <v>0.948563794255177</v>
+        <v>0.9837837837837838</v>
       </c>
     </row>
     <row r="4">
@@ -576,37 +576,37 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>749</v>
       </c>
       <c r="D4" t="n">
-        <v>6748</v>
+        <v>6750</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9973368841544608</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0.9986666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9997037037037036</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9998518299007261</v>
+        <v>0.9998518737964746</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9996</v>
+        <v>0.9998666666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9980013324450366</v>
+        <v>0.9993328885923949</v>
       </c>
     </row>
     <row r="5">
@@ -614,37 +614,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="D5" t="n">
-        <v>6727</v>
+        <v>6750</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9692101740294511</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9653333333333334</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9965925925925926</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9961498593217829</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9934666666666667</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9672678690714763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -652,37 +652,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>744</v>
       </c>
       <c r="D6" t="n">
-        <v>6742</v>
+        <v>6749</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9893617021276596</v>
+        <v>0.9986577181208054</v>
       </c>
       <c r="H6" t="n">
         <v>0.992</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9988148148148148</v>
+        <v>0.9998518518518519</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9991108476585655</v>
+        <v>0.9991117690599556</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9981333333333333</v>
+        <v>0.9990666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9906790945406125</v>
+        <v>0.9953177257525083</v>
       </c>
     </row>
     <row r="7">
@@ -690,37 +690,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="D7" t="n">
-        <v>6731</v>
+        <v>6747</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9751633986928104</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9946666666666667</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9971851851851852</v>
+        <v>0.9995555555555555</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9994060876020787</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9969333333333333</v>
+        <v>0.9996</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9848184818481848</v>
+        <v>0.998003992015968</v>
       </c>
     </row>
     <row r="8">
@@ -728,37 +728,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="D8" t="n">
-        <v>6716</v>
+        <v>6746</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9558441558441558</v>
+        <v>0.9946666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9813333333333333</v>
+        <v>0.9946666666666667</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9949629629629629</v>
+        <v>0.9994074074074074</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9979197622585438</v>
+        <v>0.9994074074074074</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9936</v>
+        <v>0.9989333333333333</v>
       </c>
       <c r="L8" t="n">
-        <v>0.968421052631579</v>
+        <v>0.9946666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -766,37 +766,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>687</v>
+        <v>746</v>
       </c>
       <c r="D9" t="n">
-        <v>6721</v>
+        <v>6744</v>
       </c>
       <c r="E9" t="n">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9594972067039106</v>
+        <v>0.9920212765957447</v>
       </c>
       <c r="H9" t="n">
-        <v>0.916</v>
+        <v>0.9946666666666667</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9957037037037038</v>
+        <v>0.9991111111111111</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9907134433962265</v>
+        <v>0.999407231772377</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9877333333333334</v>
+        <v>0.9986666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9372442019099591</v>
+        <v>0.9933422103861518</v>
       </c>
     </row>
     <row r="10">
@@ -804,37 +804,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C10" t="n">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="D10" t="n">
-        <v>6696</v>
+        <v>6748</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9311224489795918</v>
+        <v>0.9973368841544608</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9733333333333334</v>
+        <v>0.9986666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.992</v>
+        <v>0.9997037037037036</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9970220369267421</v>
+        <v>0.9998518299007261</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9901333333333333</v>
+        <v>0.9996</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9517601043024772</v>
+        <v>0.9980013324450366</v>
       </c>
     </row>
     <row r="11">
@@ -842,37 +842,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="D11" t="n">
-        <v>6741</v>
+        <v>6749</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9879032258064516</v>
+        <v>0.9986666666666667</v>
       </c>
       <c r="H11" t="n">
-        <v>0.98</v>
+        <v>0.9986666666666667</v>
       </c>
       <c r="I11" t="n">
+        <v>0.9998518518518519</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9998518518518519</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9997333333333334</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.9986666666666667</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.9977797513321492</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.9968</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9839357429718876</v>
       </c>
     </row>
     <row r="12">
@@ -887,34 +887,34 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>726</v>
+        <v>745.7</v>
       </c>
       <c r="D12" t="n">
-        <v>6726</v>
+        <v>6745.7</v>
       </c>
       <c r="E12" t="n">
-        <v>24</v>
+        <v>4.3</v>
       </c>
       <c r="F12" t="n">
-        <v>24</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9681377350428146</v>
+        <v>0.9943456591263097</v>
       </c>
       <c r="H12" t="n">
-        <v>0.968</v>
+        <v>0.9942666666666667</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9964444444444445</v>
+        <v>0.999362962962963</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9964503760700966</v>
+        <v>0.9993637979424597</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9936</v>
+        <v>0.9988533333333335</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9679131294057802</v>
+        <v>0.9942694213677598</v>
       </c>
     </row>
   </sheetData>
